--- a/FishsayingApiTest/testFile/test1.xlsx
+++ b/FishsayingApiTest/testFile/test1.xlsx
@@ -8,14 +8,15 @@
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="用户管理" sheetId="2" r:id="rId2"/>
+    <sheet name="文化号" sheetId="3" r:id="rId2"/>
+    <sheet name="用户管理" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="143">
   <si>
     <t>case_name</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -551,12 +552,43 @@
   <si>
     <t>Y</t>
   </si>
+  <si>
+    <t>/a/v2/app/app-user/userList</t>
+  </si>
+  <si>
+    <t>N</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>语音管理列表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>method</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>get</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/a/v2/cms/article/list</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pageSize=20&amp;pageNo=1&amp;delFlag=0&amp;auditStatus=1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"count":194987</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -587,6 +619,12 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF222222"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -608,7 +646,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -634,6 +672,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -941,12 +980,12 @@
   <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:C1048576"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="2" max="2" width="11.75" customWidth="1"/>
+    <col min="2" max="2" width="15.875" customWidth="1"/>
     <col min="3" max="3" width="15.75" style="1" customWidth="1"/>
     <col min="4" max="5" width="11.75" customWidth="1"/>
     <col min="6" max="6" width="39.5" customWidth="1"/>
@@ -988,7 +1027,7 @@
         <v>15</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="D2" t="s">
         <v>9</v>
@@ -1014,7 +1053,7 @@
         <v>4</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="D3" t="s">
         <v>3</v>
@@ -1339,10 +1378,139 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H15"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11:D12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="2" max="2" width="15.875" customWidth="1"/>
+    <col min="3" max="3" width="15.75" style="1" customWidth="1"/>
+    <col min="4" max="5" width="11.75" customWidth="1"/>
+    <col min="6" max="6" width="39.5" customWidth="1"/>
+    <col min="7" max="7" width="44.875" customWidth="1"/>
+    <col min="8" max="8" width="32.875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" t="s">
+        <v>138</v>
+      </c>
+      <c r="E1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>137</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="D2" t="s">
+        <v>139</v>
+      </c>
+      <c r="E2" t="s">
+        <v>38</v>
+      </c>
+      <c r="F2" t="s">
+        <v>140</v>
+      </c>
+      <c r="G2" t="s">
+        <v>141</v>
+      </c>
+      <c r="H2" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="C3" s="3"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="C4" s="3"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="C5" s="3"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="C6" s="3"/>
+    </row>
+    <row r="7" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="C7" s="3"/>
+      <c r="G7" s="4"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="C8" s="3"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="C9" s="3"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="C10" s="3"/>
+      <c r="G10" s="5"/>
+    </row>
+    <row r="11" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C11" s="3"/>
+      <c r="G11" s="6"/>
+    </row>
+    <row r="12" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C12" s="3"/>
+      <c r="G12" s="6"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="C13" s="3"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="C14" s="3"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="F15" s="6"/>
+      <c r="G15" s="6"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1:C1048576">
+      <formula1>"Y,N"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E1:E1048576">
+      <formula1>"ams,capi,rest,login,-"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H26"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F36" sqref="F36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1383,7 +1551,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1391,7 +1559,7 @@
         <v>76</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D2" t="s">
         <v>74</v>
@@ -1399,8 +1567,8 @@
       <c r="E2" t="s">
         <v>38</v>
       </c>
-      <c r="F2" t="s">
-        <v>73</v>
+      <c r="F2" s="9" t="s">
+        <v>135</v>
       </c>
       <c r="G2" t="s">
         <v>72</v>
@@ -1417,7 +1585,7 @@
         <v>77</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D3" t="s">
         <v>10</v>
@@ -1443,7 +1611,7 @@
         <v>78</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D4" t="s">
         <v>10</v>
@@ -1469,7 +1637,7 @@
         <v>83</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D5" t="s">
         <v>10</v>
@@ -1495,7 +1663,7 @@
         <v>82</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D6" t="s">
         <v>10</v>
@@ -1521,7 +1689,7 @@
         <v>86</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D7" t="s">
         <v>10</v>
@@ -1547,7 +1715,7 @@
         <v>87</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D8" t="s">
         <v>10</v>
@@ -1573,7 +1741,7 @@
         <v>88</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D9" t="s">
         <v>10</v>
@@ -1599,7 +1767,7 @@
         <v>89</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D10" t="s">
         <v>10</v>
@@ -1625,7 +1793,7 @@
         <v>94</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D11" t="s">
         <v>10</v>
@@ -1651,7 +1819,7 @@
         <v>95</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D12" t="s">
         <v>10</v>
@@ -1677,7 +1845,7 @@
         <v>96</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D13" t="s">
         <v>10</v>
@@ -1703,7 +1871,7 @@
         <v>97</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D14" t="s">
         <v>10</v>
@@ -1729,7 +1897,7 @@
         <v>102</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D15" t="s">
         <v>10</v>
@@ -1755,7 +1923,7 @@
         <v>103</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D16" t="s">
         <v>10</v>
@@ -1781,7 +1949,7 @@
         <v>104</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D17" t="s">
         <v>10</v>
@@ -1807,7 +1975,7 @@
         <v>105</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D18" t="s">
         <v>10</v>
@@ -1833,7 +2001,7 @@
         <v>110</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D19" s="2" t="s">
         <v>3</v>
@@ -1856,7 +2024,7 @@
         <v>114</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D20" s="2" t="s">
         <v>3</v>
@@ -1879,7 +2047,7 @@
         <v>116</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D21" s="2" t="s">
         <v>3</v>
@@ -1902,7 +2070,7 @@
         <v>118</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D22" s="2" t="s">
         <v>3</v>
@@ -1925,7 +2093,7 @@
         <v>120</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D23" s="2" t="s">
         <v>3</v>
@@ -1948,7 +2116,7 @@
         <v>122</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D24" s="2" t="s">
         <v>3</v>
@@ -1971,7 +2139,7 @@
         <v>127</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D25" s="2" t="s">
         <v>10</v>
@@ -1994,7 +2162,7 @@
         <v>128</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D26" s="2" t="s">
         <v>10</v>
